--- a/data/pca/factorExposure/factorExposure_2010-01-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-01-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.003788383108275777</v>
+        <v>0.01689202648694556</v>
       </c>
       <c r="C2">
-        <v>0.01480930191130779</v>
+        <v>-0.001214082684465998</v>
       </c>
       <c r="D2">
-        <v>0.006376898334873809</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.006079561322092121</v>
+      </c>
+      <c r="E2">
+        <v>-0.0001833125467126652</v>
+      </c>
+      <c r="F2">
+        <v>-0.01143644999211913</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.02983746556745382</v>
+        <v>0.09401385452934199</v>
       </c>
       <c r="C4">
-        <v>0.1247136040675398</v>
+        <v>-0.01579758299622205</v>
       </c>
       <c r="D4">
-        <v>-0.01283198403297071</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08413426770781615</v>
+      </c>
+      <c r="E4">
+        <v>0.02876993230654493</v>
+      </c>
+      <c r="F4">
+        <v>0.03099493262148366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03685534618050513</v>
+        <v>0.1563042270054362</v>
       </c>
       <c r="C6">
-        <v>0.1097674697801704</v>
+        <v>-0.02535554651541037</v>
       </c>
       <c r="D6">
-        <v>0.04171346612060069</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02337785994689235</v>
+      </c>
+      <c r="E6">
+        <v>0.008655008614015962</v>
+      </c>
+      <c r="F6">
+        <v>0.04564112791316584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.00995797058720399</v>
+        <v>0.06236455703768585</v>
       </c>
       <c r="C7">
-        <v>0.07851955439376837</v>
+        <v>0.0008448413279024924</v>
       </c>
       <c r="D7">
-        <v>0.001963176719799958</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05130518398369294</v>
+      </c>
+      <c r="E7">
+        <v>0.009437311680445707</v>
+      </c>
+      <c r="F7">
+        <v>0.04617602149402655</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.003027095031831807</v>
+        <v>0.05732998899394268</v>
       </c>
       <c r="C8">
-        <v>0.05861572268058638</v>
+        <v>0.01336458081597653</v>
       </c>
       <c r="D8">
-        <v>0.02116661931631758</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.0334676571439909</v>
+      </c>
+      <c r="E8">
+        <v>0.01756598590874015</v>
+      </c>
+      <c r="F8">
+        <v>-0.02764561800942934</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02486066526183904</v>
+        <v>0.07136201740119667</v>
       </c>
       <c r="C9">
-        <v>0.1013913928142939</v>
+        <v>-0.0116015999255838</v>
       </c>
       <c r="D9">
-        <v>-0.02479123610227893</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08596031211349213</v>
+      </c>
+      <c r="E9">
+        <v>0.02294170759890969</v>
+      </c>
+      <c r="F9">
+        <v>0.0474379912841521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.01096503362460882</v>
+        <v>0.09541230424773693</v>
       </c>
       <c r="C10">
-        <v>0.02028360530494983</v>
+        <v>-0.01940520995776681</v>
       </c>
       <c r="D10">
-        <v>0.1451133280272894</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1705991919610417</v>
+      </c>
+      <c r="E10">
+        <v>-0.03644521152296065</v>
+      </c>
+      <c r="F10">
+        <v>-0.05306747691891443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.02898451609038549</v>
+        <v>0.08804404022912742</v>
       </c>
       <c r="C11">
-        <v>0.1089538857318674</v>
+        <v>-0.01115500382455092</v>
       </c>
       <c r="D11">
-        <v>-0.03627390013034428</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1161772571869965</v>
+      </c>
+      <c r="E11">
+        <v>0.04610820400740809</v>
+      </c>
+      <c r="F11">
+        <v>0.02154653904959</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.02646338323187416</v>
+        <v>0.0917426658343321</v>
       </c>
       <c r="C12">
-        <v>0.1190292497035703</v>
+        <v>-0.00821450866450835</v>
       </c>
       <c r="D12">
-        <v>-0.03364558724484881</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1318782429563794</v>
+      </c>
+      <c r="E12">
+        <v>0.04710826293437297</v>
+      </c>
+      <c r="F12">
+        <v>0.02557972578386468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.009152089691440308</v>
+        <v>0.04209802394533304</v>
       </c>
       <c r="C13">
-        <v>0.04220085635533981</v>
+        <v>-0.003678078105416307</v>
       </c>
       <c r="D13">
-        <v>-0.02256843688012945</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05093263812765821</v>
+      </c>
+      <c r="E13">
+        <v>-0.01013747314210909</v>
+      </c>
+      <c r="F13">
+        <v>0.002209130281221253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01593623457809375</v>
+        <v>0.02297427436914139</v>
       </c>
       <c r="C14">
-        <v>0.02424334253590109</v>
+        <v>-0.01393378385763619</v>
       </c>
       <c r="D14">
-        <v>0.004956677040903256</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03348948617135464</v>
+      </c>
+      <c r="E14">
+        <v>0.01664800462948166</v>
+      </c>
+      <c r="F14">
+        <v>0.01456098475142348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01033560865107927</v>
+        <v>0.03223829749457536</v>
       </c>
       <c r="C15">
-        <v>0.02934864647042608</v>
+        <v>-0.005019267011764534</v>
       </c>
       <c r="D15">
-        <v>-0.01784262799971055</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04523838323586486</v>
+      </c>
+      <c r="E15">
+        <v>0.006288791593486412</v>
+      </c>
+      <c r="F15">
+        <v>0.02252026911484902</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.01825361723752147</v>
+        <v>0.07395910315682791</v>
       </c>
       <c r="C16">
-        <v>0.1115589634036575</v>
+        <v>-0.002194620968676986</v>
       </c>
       <c r="D16">
-        <v>-0.01233991508905152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1261154370356561</v>
+      </c>
+      <c r="E16">
+        <v>0.06121220503902441</v>
+      </c>
+      <c r="F16">
+        <v>0.024596384509209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03120401713326465</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003368947631527054</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01975654073071656</v>
+      </c>
+      <c r="E18">
+        <v>-0.006732762764876101</v>
+      </c>
+      <c r="F18">
+        <v>-0.003885554603476245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01143440099262298</v>
+        <v>0.06102669334726069</v>
       </c>
       <c r="C20">
-        <v>0.06655180852735824</v>
+        <v>-0.0006782921881296731</v>
       </c>
       <c r="D20">
-        <v>-0.005264047252226406</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07674347536003059</v>
+      </c>
+      <c r="E20">
+        <v>0.05513723042024339</v>
+      </c>
+      <c r="F20">
+        <v>0.02331515323520852</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01256394448375941</v>
+        <v>0.04040875354963996</v>
       </c>
       <c r="C21">
-        <v>0.02371819535322875</v>
+        <v>-0.006603853827158249</v>
       </c>
       <c r="D21">
-        <v>0.003889343113992119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03680864718551483</v>
+      </c>
+      <c r="E21">
+        <v>-0.006220230298483972</v>
+      </c>
+      <c r="F21">
+        <v>-0.02393679574113237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.004205689120012041</v>
+        <v>0.04364970863099411</v>
       </c>
       <c r="C22">
-        <v>0.02684060208089915</v>
+        <v>-0.001218554783563752</v>
       </c>
       <c r="D22">
-        <v>0.03417478121904123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.002745467157276664</v>
+      </c>
+      <c r="E22">
+        <v>0.02911165049002873</v>
+      </c>
+      <c r="F22">
+        <v>-0.03362292961908395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.004193654546078856</v>
+        <v>0.04363512167575973</v>
       </c>
       <c r="C23">
-        <v>0.02676909162174253</v>
+        <v>-0.00121427358596986</v>
       </c>
       <c r="D23">
-        <v>0.03423515248316526</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.002750619977414633</v>
+      </c>
+      <c r="E23">
+        <v>0.02931330557747864</v>
+      </c>
+      <c r="F23">
+        <v>-0.03358563746091812</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.01850715869454475</v>
+        <v>0.08044127326876016</v>
       </c>
       <c r="C24">
-        <v>0.115343305347529</v>
+        <v>-0.002779400886180946</v>
       </c>
       <c r="D24">
-        <v>-0.02202522819938339</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1202188572732539</v>
+      </c>
+      <c r="E24">
+        <v>0.04943224327095929</v>
+      </c>
+      <c r="F24">
+        <v>0.02546277158216301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.02376879168238103</v>
+        <v>0.08517273043913577</v>
       </c>
       <c r="C25">
-        <v>0.1188251628503451</v>
+        <v>-0.004919734751953797</v>
       </c>
       <c r="D25">
-        <v>-0.02159952599266982</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1090392194943556</v>
+      </c>
+      <c r="E25">
+        <v>0.03237811951788925</v>
+      </c>
+      <c r="F25">
+        <v>0.0261469796281829</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.02342860573630064</v>
+        <v>0.05776996623470475</v>
       </c>
       <c r="C26">
-        <v>0.05106984149319969</v>
+        <v>-0.01465621826174215</v>
       </c>
       <c r="D26">
-        <v>0.02139421714897403</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04035905486628751</v>
+      </c>
+      <c r="E26">
+        <v>0.02730345143318494</v>
+      </c>
+      <c r="F26">
+        <v>-0.009682023837640391</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.003648747613169743</v>
+        <v>0.140814024896837</v>
       </c>
       <c r="C28">
-        <v>0.01850055394529374</v>
+        <v>-0.01872499727481231</v>
       </c>
       <c r="D28">
-        <v>0.2001336767768328</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.263739929316089</v>
+      </c>
+      <c r="E28">
+        <v>-0.06817389583025327</v>
+      </c>
+      <c r="F28">
+        <v>0.008811739704455703</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01277906032551037</v>
+        <v>0.02748485270375516</v>
       </c>
       <c r="C29">
-        <v>0.02836320966753795</v>
+        <v>-0.008145958525130486</v>
       </c>
       <c r="D29">
-        <v>0.01354058980082712</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03287835697803618</v>
+      </c>
+      <c r="E29">
+        <v>0.01125709062163736</v>
+      </c>
+      <c r="F29">
+        <v>-0.01024139652721649</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.01552563778243302</v>
+        <v>0.0624489643236795</v>
       </c>
       <c r="C30">
-        <v>0.1275692377041922</v>
+        <v>-0.004248672145399331</v>
       </c>
       <c r="D30">
-        <v>-0.01682558761650489</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08647542869339717</v>
+      </c>
+      <c r="E30">
+        <v>0.01984688916726502</v>
+      </c>
+      <c r="F30">
+        <v>0.08245512915731747</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02155245880993982</v>
+        <v>0.04996568720599296</v>
       </c>
       <c r="C31">
-        <v>0.0367774360778999</v>
+        <v>-0.01525928742864712</v>
       </c>
       <c r="D31">
-        <v>0.002892439214393174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02505088799384534</v>
+      </c>
+      <c r="E31">
+        <v>0.02744096497715962</v>
+      </c>
+      <c r="F31">
+        <v>-0.002611079152269264</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.006610710425212917</v>
+        <v>0.04990134934543236</v>
       </c>
       <c r="C32">
-        <v>0.05747016470088284</v>
+        <v>0.00134496669542544</v>
       </c>
       <c r="D32">
-        <v>0.02504845470752831</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03618299359562022</v>
+      </c>
+      <c r="E32">
+        <v>0.03059171153810942</v>
+      </c>
+      <c r="F32">
+        <v>0.002023976787371923</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02228089992086495</v>
+        <v>0.08968249402673564</v>
       </c>
       <c r="C33">
-        <v>0.1152154293780767</v>
+        <v>-0.008339383567050572</v>
       </c>
       <c r="D33">
-        <v>-0.01667291175946556</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.09846860233495197</v>
+      </c>
+      <c r="E33">
+        <v>0.04438481864266952</v>
+      </c>
+      <c r="F33">
+        <v>0.03531365500550536</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.02582238857159514</v>
+        <v>0.0684536340830743</v>
       </c>
       <c r="C34">
-        <v>0.09846661989679115</v>
+        <v>-0.01136490595013999</v>
       </c>
       <c r="D34">
-        <v>-0.01292127963844844</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1065403979930127</v>
+      </c>
+      <c r="E34">
+        <v>0.03441085952012297</v>
+      </c>
+      <c r="F34">
+        <v>0.03353120678182973</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.003680959350844325</v>
+        <v>0.02376895236366312</v>
       </c>
       <c r="C35">
-        <v>0.01579696584249896</v>
+        <v>-0.002342850461150921</v>
       </c>
       <c r="D35">
-        <v>-0.006281783541484679</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01243480137176336</v>
+      </c>
+      <c r="E35">
+        <v>0.01143882952574802</v>
+      </c>
+      <c r="F35">
+        <v>0.001120626725933085</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01078707113217511</v>
+        <v>0.02725662059792417</v>
       </c>
       <c r="C36">
-        <v>0.03039836340168568</v>
+        <v>-0.007170079407946705</v>
       </c>
       <c r="D36">
-        <v>-0.009328202982178339</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03985114874396538</v>
+      </c>
+      <c r="E36">
+        <v>0.01550924292767341</v>
+      </c>
+      <c r="F36">
+        <v>0.01525385169911229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0004492165400231393</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>7.885451869138528e-05</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.0004449719393026275</v>
+      </c>
+      <c r="E37">
+        <v>-0.0001587997714368839</v>
+      </c>
+      <c r="F37">
+        <v>0.0006847751977424118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0005314218417779202</v>
+        <v>0.001224183333055866</v>
       </c>
       <c r="C38">
-        <v>0.003823730104596737</v>
+        <v>-0.0001740977640888658</v>
       </c>
       <c r="D38">
-        <v>0.001491773443573239</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.000781581374674</v>
+      </c>
+      <c r="E38">
+        <v>0.000937579627750293</v>
+      </c>
+      <c r="F38">
+        <v>-0.0007570765566515464</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04151100245204836</v>
+        <v>0.1059935519880273</v>
       </c>
       <c r="C39">
-        <v>0.1764952183588038</v>
+        <v>-0.01668559693330742</v>
       </c>
       <c r="D39">
-        <v>-0.04354267310610967</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1537013504222483</v>
+      </c>
+      <c r="E39">
+        <v>0.05889049186960798</v>
+      </c>
+      <c r="F39">
+        <v>0.02818154647241686</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01127574281300619</v>
+        <v>0.04104675592324131</v>
       </c>
       <c r="C40">
-        <v>0.01577896950485678</v>
+        <v>-0.007297423873078802</v>
       </c>
       <c r="D40">
-        <v>0.0151253284706946</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03147728459572275</v>
+      </c>
+      <c r="E40">
+        <v>0.003104373162738165</v>
+      </c>
+      <c r="F40">
+        <v>-0.01593563169182914</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01115493312781997</v>
+        <v>0.02755559041282085</v>
       </c>
       <c r="C41">
-        <v>0.02099260443740704</v>
+        <v>-0.006585211757299409</v>
       </c>
       <c r="D41">
-        <v>0.01827389311770609</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01086712012392749</v>
+      </c>
+      <c r="E41">
+        <v>0.01241574513935799</v>
+      </c>
+      <c r="F41">
+        <v>-0.006332515928700893</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01310170992194567</v>
+        <v>0.04045654289928468</v>
       </c>
       <c r="C43">
-        <v>0.02834871865641898</v>
+        <v>-0.006780765176567885</v>
       </c>
       <c r="D43">
-        <v>0.01138440828647954</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0207285197379304</v>
+      </c>
+      <c r="E43">
+        <v>0.02512230219007885</v>
+      </c>
+      <c r="F43">
+        <v>-0.01246045606195453</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.03077661793205647</v>
+        <v>0.07919195338324014</v>
       </c>
       <c r="C44">
-        <v>0.1317129613886135</v>
+        <v>-0.02055407301127956</v>
       </c>
       <c r="D44">
-        <v>-0.002444732666252753</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09920126996169369</v>
+      </c>
+      <c r="E44">
+        <v>0.06553991455291514</v>
+      </c>
+      <c r="F44">
+        <v>0.1553078241448909</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.005466481809154078</v>
+        <v>0.02325079552544831</v>
       </c>
       <c r="C46">
-        <v>0.004615702365539478</v>
+        <v>-0.003723351048446697</v>
       </c>
       <c r="D46">
-        <v>0.01850871724629314</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01337943202980955</v>
+      </c>
+      <c r="E46">
+        <v>0.02179080930116545</v>
+      </c>
+      <c r="F46">
+        <v>-0.004190749741832812</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.009948330217944555</v>
+        <v>0.05067727841437214</v>
       </c>
       <c r="C47">
-        <v>0.03226118441224826</v>
+        <v>-0.003587862307077934</v>
       </c>
       <c r="D47">
-        <v>0.02779472374812638</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01399170601188124</v>
+      </c>
+      <c r="E47">
+        <v>0.02352443753791211</v>
+      </c>
+      <c r="F47">
+        <v>-0.03325576538073453</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01163955041294904</v>
+        <v>0.04928585710144735</v>
       </c>
       <c r="C48">
-        <v>0.05117050086729065</v>
+        <v>-0.002592985616351566</v>
       </c>
       <c r="D48">
-        <v>-0.00986539790211775</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05036440778289097</v>
+      </c>
+      <c r="E48">
+        <v>-0.007008388237711369</v>
+      </c>
+      <c r="F48">
+        <v>0.009312656823439243</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.03611327483530789</v>
+        <v>0.199465989229333</v>
       </c>
       <c r="C49">
-        <v>0.1991939436525995</v>
+        <v>-0.01871046206870644</v>
       </c>
       <c r="D49">
-        <v>0.0703594290101125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.00857012922192801</v>
+      </c>
+      <c r="E49">
+        <v>0.03105186023419617</v>
+      </c>
+      <c r="F49">
+        <v>0.03878887006193316</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.01814315005356255</v>
+        <v>0.05057904673617201</v>
       </c>
       <c r="C50">
-        <v>0.04103525895562792</v>
+        <v>-0.01122706806823475</v>
       </c>
       <c r="D50">
-        <v>0.01126374151294235</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02363804840418564</v>
+      </c>
+      <c r="E50">
+        <v>0.02941082407202664</v>
+      </c>
+      <c r="F50">
+        <v>0.008279520532025022</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0004720375931844139</v>
+        <v>0.0009988738139014815</v>
       </c>
       <c r="C51">
-        <v>0.002544240434997981</v>
+        <v>-0.000287565823413546</v>
       </c>
       <c r="D51">
-        <v>0.00399799277023446</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0008435109388621798</v>
+      </c>
+      <c r="E51">
+        <v>-4.495211477208808e-05</v>
+      </c>
+      <c r="F51">
+        <v>0.002971252401201939</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.02952767798535097</v>
+        <v>0.1460912727901596</v>
       </c>
       <c r="C52">
-        <v>0.1513388797091988</v>
+        <v>-0.01534775222765492</v>
       </c>
       <c r="D52">
-        <v>-0.01509193312994524</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04623191504681939</v>
+      </c>
+      <c r="E52">
+        <v>0.0205165332105742</v>
+      </c>
+      <c r="F52">
+        <v>0.04123735518929768</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.03060588507144603</v>
+        <v>0.1724183477661024</v>
       </c>
       <c r="C53">
-        <v>0.1705573481860729</v>
+        <v>-0.01866414002295198</v>
       </c>
       <c r="D53">
-        <v>0.0218532831537261</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.00557459795488569</v>
+      </c>
+      <c r="E53">
+        <v>0.03117986922607845</v>
+      </c>
+      <c r="F53">
+        <v>0.07255901398016877</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01532946113123042</v>
+        <v>0.02215380583152553</v>
       </c>
       <c r="C54">
-        <v>0.04363423805636452</v>
+        <v>-0.01260063376743168</v>
       </c>
       <c r="D54">
-        <v>0.01357321618980737</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03431514635285067</v>
+      </c>
+      <c r="E54">
+        <v>0.01753837749880939</v>
+      </c>
+      <c r="F54">
+        <v>-0.002850995331377306</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.02373963034815307</v>
+        <v>0.1139923363938151</v>
       </c>
       <c r="C55">
-        <v>0.08615562662363711</v>
+        <v>-0.01641999484743901</v>
       </c>
       <c r="D55">
-        <v>-0.002316513559020233</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.009411338492880981</v>
+      </c>
+      <c r="E55">
+        <v>0.0277768931122032</v>
+      </c>
+      <c r="F55">
+        <v>0.0469752517265655</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.03146107460968013</v>
+        <v>0.1768712701132027</v>
       </c>
       <c r="C56">
-        <v>0.1577816254645762</v>
+        <v>-0.0159691033718613</v>
       </c>
       <c r="D56">
-        <v>0.03239600036326509</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.001510407754410308</v>
+      </c>
+      <c r="E56">
+        <v>0.0362195063478216</v>
+      </c>
+      <c r="F56">
+        <v>0.05101723723271131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.01254245006219913</v>
+        <v>0.04695582780277662</v>
       </c>
       <c r="C58">
-        <v>0.05130548931368243</v>
+        <v>-0.001065649375192115</v>
       </c>
       <c r="D58">
-        <v>0.001674665094821231</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.06703531818673732</v>
+      </c>
+      <c r="E58">
+        <v>0.02739394052528821</v>
+      </c>
+      <c r="F58">
+        <v>-0.03607971626543885</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.01109337581950965</v>
+        <v>0.1677759814514629</v>
       </c>
       <c r="C59">
-        <v>0.07144932592503862</v>
+        <v>-0.01951762477793642</v>
       </c>
       <c r="D59">
-        <v>0.216400464490465</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2191496506165176</v>
+      </c>
+      <c r="E59">
+        <v>-0.04401640428607215</v>
+      </c>
+      <c r="F59">
+        <v>-0.03520425472279975</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.02408388984974523</v>
+        <v>0.2315887901640436</v>
       </c>
       <c r="C60">
-        <v>0.2737942340104339</v>
+        <v>0.002562867156391434</v>
       </c>
       <c r="D60">
-        <v>0.01628997800169468</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04160997638232806</v>
+      </c>
+      <c r="E60">
+        <v>0.01149923149812769</v>
+      </c>
+      <c r="F60">
+        <v>-0.006375914473084174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.02905799910849961</v>
+        <v>0.08282913345815654</v>
       </c>
       <c r="C61">
-        <v>0.1297541881670467</v>
+        <v>-0.01263449920442887</v>
       </c>
       <c r="D61">
-        <v>-0.01569143370721356</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1155952026402435</v>
+      </c>
+      <c r="E61">
+        <v>0.03825500836514883</v>
+      </c>
+      <c r="F61">
+        <v>0.01160651282481903</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.03346177836634348</v>
+        <v>0.170423170202891</v>
       </c>
       <c r="C62">
-        <v>0.1626813364111021</v>
+        <v>-0.01931131204191051</v>
       </c>
       <c r="D62">
-        <v>0.02915470358080043</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.007649011419605278</v>
+      </c>
+      <c r="E62">
+        <v>0.03537120212531533</v>
+      </c>
+      <c r="F62">
+        <v>0.03472402363428684</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01159818069355189</v>
+        <v>0.0451154453410063</v>
       </c>
       <c r="C63">
-        <v>0.05587936290623677</v>
+        <v>-0.002436762999156696</v>
       </c>
       <c r="D63">
-        <v>-0.005607584286202888</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05789715631351771</v>
+      </c>
+      <c r="E63">
+        <v>0.02037970172890717</v>
+      </c>
+      <c r="F63">
+        <v>0.005590947692870745</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.02253187047738888</v>
+        <v>0.1108305935528441</v>
       </c>
       <c r="C64">
-        <v>0.09897953374282757</v>
+        <v>-0.01163820579023729</v>
       </c>
       <c r="D64">
-        <v>0.001816177324604935</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04221699556777677</v>
+      </c>
+      <c r="E64">
+        <v>0.02280798089301276</v>
+      </c>
+      <c r="F64">
+        <v>0.02638375022363098</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.03716997333360239</v>
+        <v>0.1469449010054952</v>
       </c>
       <c r="C65">
-        <v>0.1035784137771836</v>
+        <v>-0.03234175089263226</v>
       </c>
       <c r="D65">
-        <v>0.02293985196069331</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04266296306402417</v>
+      </c>
+      <c r="E65">
+        <v>0.002572394896206209</v>
+      </c>
+      <c r="F65">
+        <v>0.0394896908751714</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.04025568002862286</v>
+        <v>0.1259350327484529</v>
       </c>
       <c r="C66">
-        <v>0.2058608567431145</v>
+        <v>-0.01478511466262012</v>
       </c>
       <c r="D66">
-        <v>-0.01921655356320611</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1418831755365783</v>
+      </c>
+      <c r="E66">
+        <v>0.06658541279692884</v>
+      </c>
+      <c r="F66">
+        <v>0.03096723052636358</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.01450140669848349</v>
+        <v>0.06109042451947659</v>
       </c>
       <c r="C67">
-        <v>0.06344821185699197</v>
+        <v>-0.003227899228745117</v>
       </c>
       <c r="D67">
-        <v>0.002893151262908783</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0563045766138927</v>
+      </c>
+      <c r="E67">
+        <v>0.01790138587503955</v>
+      </c>
+      <c r="F67">
+        <v>-0.03314514267311207</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.01446295906045241</v>
+        <v>0.1163964546114374</v>
       </c>
       <c r="C68">
-        <v>0.01529869200132596</v>
+        <v>-0.02883142943773527</v>
       </c>
       <c r="D68">
-        <v>0.1931230830384634</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2599430197824436</v>
+      </c>
+      <c r="E68">
+        <v>-0.08626714941336824</v>
+      </c>
+      <c r="F68">
+        <v>0.005202464142062858</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.005594765500220955</v>
+        <v>0.03945141851954548</v>
       </c>
       <c r="C69">
-        <v>0.03230316016753156</v>
+        <v>-0.001317024654063417</v>
       </c>
       <c r="D69">
-        <v>0.01301849285119763</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007425630968011868</v>
+      </c>
+      <c r="E69">
+        <v>0.02338265935642253</v>
+      </c>
+      <c r="F69">
+        <v>-0.001181052414141782</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.001743016025601015</v>
+        <v>0.06546314380009886</v>
       </c>
       <c r="C70">
-        <v>0.02958202672380195</v>
+        <v>0.02797173994601455</v>
       </c>
       <c r="D70">
-        <v>0.002932262404023146</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02594922837505667</v>
+      </c>
+      <c r="E70">
+        <v>-0.04068807434687192</v>
+      </c>
+      <c r="F70">
+        <v>-0.1859247521170737</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.01810727023315283</v>
+        <v>0.1364468316085798</v>
       </c>
       <c r="C71">
-        <v>0.01851016511657966</v>
+        <v>-0.03378563616844445</v>
       </c>
       <c r="D71">
-        <v>0.1983404172334459</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2741971089195207</v>
+      </c>
+      <c r="E71">
+        <v>-0.09627949947561935</v>
+      </c>
+      <c r="F71">
+        <v>0.01209465332965765</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.03518016266892352</v>
+        <v>0.1416899370644907</v>
       </c>
       <c r="C72">
-        <v>0.1153014781250367</v>
+        <v>-0.02586592435256985</v>
       </c>
       <c r="D72">
-        <v>0.0416017636019063</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.001000792800256009</v>
+      </c>
+      <c r="E72">
+        <v>0.03880004406812556</v>
+      </c>
+      <c r="F72">
+        <v>0.03521745157698255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.03269797829470188</v>
+        <v>0.2008967855431868</v>
       </c>
       <c r="C73">
-        <v>0.2008256727057339</v>
+        <v>-0.01288526704478677</v>
       </c>
       <c r="D73">
-        <v>0.07187459176541704</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01609518659944467</v>
+      </c>
+      <c r="E73">
+        <v>0.06455001572135036</v>
+      </c>
+      <c r="F73">
+        <v>0.03845177114073159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.01919828851784949</v>
+        <v>0.09502548004352866</v>
       </c>
       <c r="C74">
-        <v>0.1115135681352608</v>
+        <v>-0.01314632605881178</v>
       </c>
       <c r="D74">
-        <v>0.03060823157989697</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01796316202265211</v>
+      </c>
+      <c r="E74">
+        <v>0.044290799644067</v>
+      </c>
+      <c r="F74">
+        <v>0.05654798019850328</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.04054280691526602</v>
+        <v>0.1286130515815121</v>
       </c>
       <c r="C75">
-        <v>0.131949291765325</v>
+        <v>-0.02762032277590669</v>
       </c>
       <c r="D75">
-        <v>0.03803516964080186</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03048465881020103</v>
+      </c>
+      <c r="E75">
+        <v>0.0587745299458353</v>
+      </c>
+      <c r="F75">
+        <v>0.01819742751872356</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0004091680124597362</v>
+        <v>0.001070138415878495</v>
       </c>
       <c r="C76">
-        <v>0.003358836657704482</v>
+        <v>-0.0002915964709272125</v>
       </c>
       <c r="D76">
-        <v>0.004806104620942997</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0008177294198511031</v>
+      </c>
+      <c r="E76">
+        <v>0.0002105695227570283</v>
+      </c>
+      <c r="F76">
+        <v>0.001135989053184348</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.02439974854543763</v>
+        <v>0.0839900698976008</v>
       </c>
       <c r="C77">
-        <v>0.1052694681729983</v>
+        <v>-0.008532220790115647</v>
       </c>
       <c r="D77">
-        <v>-0.04623151114966671</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1135560380043112</v>
+      </c>
+      <c r="E77">
+        <v>0.03722383443216915</v>
+      </c>
+      <c r="F77">
+        <v>0.02989569788517554</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.05332041963954029</v>
+        <v>0.1008752744773057</v>
       </c>
       <c r="C78">
-        <v>0.131562943931039</v>
+        <v>-0.03952067943802939</v>
       </c>
       <c r="D78">
-        <v>0.0008643051393470469</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1163959917405984</v>
+      </c>
+      <c r="E78">
+        <v>0.07676852586698241</v>
+      </c>
+      <c r="F78">
+        <v>0.04517601276730206</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.03526758714209283</v>
+        <v>0.1643919125198846</v>
       </c>
       <c r="C79">
-        <v>0.1429178982027792</v>
+        <v>-0.02215989680789903</v>
       </c>
       <c r="D79">
-        <v>0.03890188707382607</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01590594513088932</v>
+      </c>
+      <c r="E79">
+        <v>0.04681312886015078</v>
+      </c>
+      <c r="F79">
+        <v>0.01109420634864261</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.007981993657528517</v>
+        <v>0.08249121314007909</v>
       </c>
       <c r="C80">
-        <v>0.08587432595020465</v>
+        <v>0.0005587078671018408</v>
       </c>
       <c r="D80">
-        <v>0.01019543482863512</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05711113049495753</v>
+      </c>
+      <c r="E80">
+        <v>0.03640709681406063</v>
+      </c>
+      <c r="F80">
+        <v>-0.02404761582175075</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.04222603879861225</v>
+        <v>0.1222387940743767</v>
       </c>
       <c r="C81">
-        <v>0.144120877722822</v>
+        <v>-0.03147174360152276</v>
       </c>
       <c r="D81">
-        <v>0.02381886053878291</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01569406666047382</v>
+      </c>
+      <c r="E81">
+        <v>0.05874997333411326</v>
+      </c>
+      <c r="F81">
+        <v>0.01699981784643233</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.03630641656506452</v>
+        <v>0.1664244180915004</v>
       </c>
       <c r="C82">
-        <v>0.1626192210464271</v>
+        <v>-0.02391595701202353</v>
       </c>
       <c r="D82">
-        <v>0.03220308241895181</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.003990053266259238</v>
+      </c>
+      <c r="E82">
+        <v>0.0285036848348994</v>
+      </c>
+      <c r="F82">
+        <v>0.07995271562912631</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.01808417743731757</v>
+        <v>0.06107176186488992</v>
       </c>
       <c r="C83">
-        <v>0.07153762207128307</v>
+        <v>-0.003289966494856587</v>
       </c>
       <c r="D83">
-        <v>0.01330151896673246</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04976436018711054</v>
+      </c>
+      <c r="E83">
+        <v>0.00563981234329253</v>
+      </c>
+      <c r="F83">
+        <v>-0.03173758673297791</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.02573411834294745</v>
+        <v>0.05800734707502413</v>
       </c>
       <c r="C84">
-        <v>0.07627944766003533</v>
+        <v>-0.01099772206994201</v>
       </c>
       <c r="D84">
-        <v>-0.01431859915663382</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06567821975204405</v>
+      </c>
+      <c r="E84">
+        <v>0.007628419795945636</v>
+      </c>
+      <c r="F84">
+        <v>0.004064040365498184</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.03689330883601763</v>
+        <v>0.1368926695826933</v>
       </c>
       <c r="C85">
-        <v>0.1207290554328886</v>
+        <v>-0.02747726717996113</v>
       </c>
       <c r="D85">
-        <v>0.02416560480118278</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01150173707980981</v>
+      </c>
+      <c r="E85">
+        <v>0.03908994566170688</v>
+      </c>
+      <c r="F85">
+        <v>0.04573111678199114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.00702345896269955</v>
+        <v>0.09381119790925055</v>
       </c>
       <c r="C86">
-        <v>0.08354527778530643</v>
+        <v>0.006496178797723972</v>
       </c>
       <c r="D86">
-        <v>0.2721965706735945</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04227017833507013</v>
+      </c>
+      <c r="E86">
+        <v>0.2123716832371491</v>
+      </c>
+      <c r="F86">
+        <v>-0.9087264880696324</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.03819694716996536</v>
+        <v>0.09690833612131282</v>
       </c>
       <c r="C87">
-        <v>0.1092996021903247</v>
+        <v>-0.0204752287217058</v>
       </c>
       <c r="D87">
-        <v>-0.05016263224734993</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09505363099795859</v>
+      </c>
+      <c r="E87">
+        <v>-0.05243550946518324</v>
+      </c>
+      <c r="F87">
+        <v>0.05366602119298632</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.01257615003113205</v>
+        <v>0.06051511300092811</v>
       </c>
       <c r="C88">
-        <v>0.05843049137191469</v>
+        <v>-0.002444217493949729</v>
       </c>
       <c r="D88">
-        <v>-0.01057749810003737</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05027395509561308</v>
+      </c>
+      <c r="E88">
+        <v>0.02492352532656345</v>
+      </c>
+      <c r="F88">
+        <v>0.01211353642853272</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.0003345509320177347</v>
+        <v>0.1341401662640493</v>
       </c>
       <c r="C89">
-        <v>0.03725123939693019</v>
+        <v>-0.01149338753071275</v>
       </c>
       <c r="D89">
-        <v>0.2505615006437231</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.252233704166325</v>
+      </c>
+      <c r="E89">
+        <v>-0.0902126777925438</v>
+      </c>
+      <c r="F89">
+        <v>-0.008890358176364598</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.01696473128109276</v>
+        <v>0.1495546792358473</v>
       </c>
       <c r="C90">
-        <v>0.01963959857273258</v>
+        <v>-0.02966389830942346</v>
       </c>
       <c r="D90">
-        <v>0.212815988986408</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2685352401042884</v>
+      </c>
+      <c r="E90">
+        <v>-0.1109251956270329</v>
+      </c>
+      <c r="F90">
+        <v>-0.002438212389422763</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.02231945041295414</v>
+        <v>0.1202744664448196</v>
       </c>
       <c r="C91">
-        <v>0.09422553129747077</v>
+        <v>-0.01845720572610557</v>
       </c>
       <c r="D91">
-        <v>0.02424803445318654</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01328317221675228</v>
+      </c>
+      <c r="E91">
+        <v>0.05691180092171506</v>
+      </c>
+      <c r="F91">
+        <v>-0.002711578985608969</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.00105366252707295</v>
+        <v>0.1475967018715589</v>
       </c>
       <c r="C92">
-        <v>0.0315132424632782</v>
+        <v>-0.02157207354718473</v>
       </c>
       <c r="D92">
-        <v>0.224554880474041</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2914566669558606</v>
+      </c>
+      <c r="E92">
+        <v>-0.1004089523066692</v>
+      </c>
+      <c r="F92">
+        <v>-0.01428635480546723</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.01327321178416309</v>
+        <v>0.1516148125763816</v>
       </c>
       <c r="C93">
-        <v>0.02835872190278373</v>
+        <v>-0.02549865131043888</v>
       </c>
       <c r="D93">
-        <v>0.2269353235757767</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2677154785536436</v>
+      </c>
+      <c r="E93">
+        <v>-0.07746616729062539</v>
+      </c>
+      <c r="F93">
+        <v>0.003326307146638752</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.04021740155863483</v>
+        <v>0.1315865181382505</v>
       </c>
       <c r="C94">
-        <v>0.154410342371891</v>
+        <v>-0.02457302412418388</v>
       </c>
       <c r="D94">
-        <v>0.03585613956904489</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04282964585371864</v>
+      </c>
+      <c r="E94">
+        <v>0.05793146298272561</v>
+      </c>
+      <c r="F94">
+        <v>0.03675661096455053</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.02448036370517099</v>
+        <v>0.127145838734373</v>
       </c>
       <c r="C95">
-        <v>0.1480325273251563</v>
+        <v>-0.004593567237774904</v>
       </c>
       <c r="D95">
-        <v>-0.01190155517245599</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09125466665606592</v>
+      </c>
+      <c r="E95">
+        <v>0.04623547455781746</v>
+      </c>
+      <c r="F95">
+        <v>-0.007625622300425326</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.976997907760116</v>
+        <v>0.104933531638162</v>
       </c>
       <c r="C96">
-        <v>0.1927638505883094</v>
+        <v>0.9879907814310587</v>
       </c>
       <c r="D96">
-        <v>0.02630386742292568</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.04070552522826066</v>
+      </c>
+      <c r="E96">
+        <v>0.05604418302619186</v>
+      </c>
+      <c r="F96">
+        <v>0.04266604566215528</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.003268984315950544</v>
+        <v>0.193322300432699</v>
       </c>
       <c r="C97">
-        <v>0.1569822705607068</v>
+        <v>0.008100597428275737</v>
       </c>
       <c r="D97">
-        <v>0.1170436005031727</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01590124462467217</v>
+      </c>
+      <c r="E97">
+        <v>0.01896689419807544</v>
+      </c>
+      <c r="F97">
+        <v>-0.08990094132662586</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.02415695226324261</v>
+        <v>0.2048960484285526</v>
       </c>
       <c r="C98">
-        <v>0.1899778165091051</v>
+        <v>-0.007600690320144608</v>
       </c>
       <c r="D98">
-        <v>0.04028451903583245</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.0094392721921399</v>
+      </c>
+      <c r="E98">
+        <v>-0.08436550411248048</v>
+      </c>
+      <c r="F98">
+        <v>-0.09624136883169566</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.003586181767136755</v>
+        <v>0.05636930136563884</v>
       </c>
       <c r="C99">
-        <v>0.0552641710653005</v>
+        <v>0.004513305437217742</v>
       </c>
       <c r="D99">
-        <v>0.01490852568326871</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.0392506691398172</v>
+      </c>
+      <c r="E99">
+        <v>0.02334274303492544</v>
+      </c>
+      <c r="F99">
+        <v>0.001783705220506301</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.008645852326531001</v>
+        <v>0.1261006560261438</v>
       </c>
       <c r="C100">
-        <v>0.230156949243568</v>
+        <v>0.05289451151705189</v>
       </c>
       <c r="D100">
-        <v>-0.6851221096898243</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.344062596869688</v>
+      </c>
+      <c r="E100">
+        <v>-0.8892203229617515</v>
+      </c>
+      <c r="F100">
+        <v>-0.1397923907858843</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.0127937291278697</v>
+        <v>0.02740286386736228</v>
       </c>
       <c r="C101">
-        <v>0.02837555601158621</v>
+        <v>-0.008154771444816323</v>
       </c>
       <c r="D101">
-        <v>0.0133446414076623</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03258514343518403</v>
+      </c>
+      <c r="E101">
+        <v>0.01070562043757373</v>
+      </c>
+      <c r="F101">
+        <v>-0.01152791952710058</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
